--- a/biology/Médecine/The_Father_(film,_2020)/The_Father_(film,_2020).xlsx
+++ b/biology/Médecine/The_Father_(film,_2020)/The_Father_(film,_2020).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Father, ou Le Père au Québec[1],[2], est un film franco-britannique coécrit et réalisé par Florian Zeller, sorti en 2020.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Father, ou Le Père au Québec est un film franco-britannique coécrit et réalisé par Florian Zeller, sorti en 2020.
 Il s'agit de l'adaptation de sa propre pièce de théâtre, Le Père. 
-Il est sélectionné et présenté pour la première fois au Festival de Sundance en janvier 2020, où il reçoit un excellent accueil critique[3],[4],[5],[6],[7]. 
-Le film a obtenu plus de 200 prix et nominations à travers le monde[8],[9], dont 2 Oscars[10].  
-Depuis, il est souvent cité comme l'un des meilleurs films des années 2020, voire comme l'un des meilleurs films du siècle[11],[12],[13],[14].
+Il est sélectionné et présenté pour la première fois au Festival de Sundance en janvier 2020, où il reçoit un excellent accueil critique. 
+Le film a obtenu plus de 200 prix et nominations à travers le monde dont 2 Oscars.  
+Depuis, il est souvent cité comme l'un des meilleurs films des années 2020, voire comme l'un des meilleurs films du siècle.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthony a bientôt 80 ans. Il vit seul dans son appartement de Londres et refuse toutes les aides-soignantes que sa fille, Anne, tente de lui imposer. Cette dernière y voit une nécessité d'autant plus grande qu'elle ne pourra plus passer le voir tous les jours : elle a en effet pris la décision de partir vivre à Paris pour s'installer avec l'homme qu'elle vient de rencontrer.
 Mais alors, qui est cet étranger sur lequel Anthony tombe dans son salon, et qui prétend être marié avec Anne depuis plus de dix ans ? Et pourquoi affirme-t-il avec conviction qu'ils sont chez eux, et non chez lui ? Anthony est-il en train de perdre la raison ? Quelque chose semble se tramer autour de lui, comme si le monde, par instant, avait cessé d'être logique. Égaré dans un labyrinthe de questions sans réponse, Anthony tente désespérément de comprendre ce qui se passe autour de lui.
@@ -547,7 +561,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre : The Father
@@ -566,9 +582,9 @@
 Format : couleur
 Genre : drame
 Durée : 97 minutes
-Dates de sortie[15] :
+Dates de sortie :
 États-Unis : 27 janvier 2020 (festival du film de Sundance)
-Royaume-Uni : 26 mars 2021 (Borderlands Film Festival, en ligne)[16] ; 11 juin 2021 (sortie nationale)
+Royaume-Uni : 26 mars 2021 (Borderlands Film Festival, en ligne) ; 11 juin 2021 (sortie nationale)
 France : 26 mai 2021</t>
         </is>
       </c>
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthony Hopkins (VF : Jean-Pierre Moulin ; VQ : Guy Nadon) : Anthony Evans
 Olivia Colman (VF : Isabelle Gélinas ; VQ : Manon Arsenault) : Anne
@@ -606,7 +624,7 @@
 Olivia Williams (VF : Marine Delterme ; VQ : Anne Bédard) : la femme (Catherine)
 Mark Gatiss (VF : Laurent Montel ; VQ : Sylvain Hétu) : l'homme (Bill)
 Ayesha Dharker (VF : Katia Lutzkanoff) : Dr Sarai
- Source et légende : version québécoise (VQ) sur Doublage.qc.ca[17]
+ Source et légende : version québécoise (VQ) sur Doublage.qc.ca
 </t>
         </is>
       </c>
@@ -635,15 +653,13 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Father est adapté de la pièce de théâtre, Le Père, de Florian Zeller[18], jouée en France dès 2012 puis par la suite dans le monde entier où elle a reçu de nombreux prix. Elle est, selon The Guardian, « la pièce la plus acclamée de la décennie »[19] et, selon The Times, « l'une des meilleures pièces de la décennie »[20]. 
-Selon l'Evening Standard, elle est l'une des « meilleures pièces du XXIe siècle »[21].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Father est adapté de la pièce de théâtre, Le Père, de Florian Zeller, jouée en France dès 2012 puis par la suite dans le monde entier où elle a reçu de nombreux prix. Elle est, selon The Guardian, « la pièce la plus acclamée de la décennie » et, selon The Times, « l'une des meilleures pièces de la décennie ». 
+Selon l'Evening Standard, elle est l'une des « meilleures pièces du XXIe siècle ».
 En mai 2019, il est annoncé que Florian Zeller va réaliser lui-même l'adaptation de son œuvre et qu'il va coécrire le scénario avec Christopher Hampton.
-Attribution des rôles
-En mai 2019, Anthony Hopkins et Olivia Colman sont annoncés dans les rôles principaux. Olivia Williams, Rufus Sewell, Imogen Poots et Mark Gatiss rejoignent la distribution le mois suivant.
-Tournage
-Le tournage débute le 13 mai 2019[22]. Il se déroule notamment aux West London Film Studios à Hayes près de Londres[23],[24],[25]. Il a également lieu à West Kensington.
 </t>
         </is>
       </c>
@@ -669,29 +685,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sortie
-The Father sort en salles aux États-Unis le 26 février 2021. Après plusieurs modifications de calendrier, la sortie française est décalée en raison de la pandémie de Covid-19 : le 26 avril, la date n'est toujours pas connue[26]. Le film sort tout de même le 26 mai 2021 dans les salles de cinéma à la suite des annonces gouvernementales du 29 avril concernant leur réouverture.
-Critiques
-Les critiques sont unanimes, le film atteignant le score de 100 % sur Rotten Tomatoes[27]. Sur Metacritic, le film est noté à 91 sur 100, s'inscrivant ainsi dans la catégorie de « l'acclamation universelle »[28]. 
-Dans Variety, Owen Gleiberman écrit : « The Father accomplit quelque chose que peu de films ont réussi à accomplir à ce sujet. Il nous place dans l'esprit d’un être en train de se détériorer – et il le fait en nous présentant cette détérioration de façon apparemment rationnelle et comme une expérience cohérente. À certains moments, le film semble envoyer Le Roi Lear dans un univers parallèle ; à d’autres moments, cela fait penser à Shining réécrit par Harold Pinter. The Father est un film intimiste, mais il a une telle verve artistique qu’il réussit à jongler avec le réel sans jamais devenir un simple jeu de l’esprit. Et c’est pourquoi il est traversé d’une rage brûlante et désespérée. »[29].
-Dans The Guardian, Benjamin Lee estime qu'avec ce film « Anthony Hopkins est maintenant en tête de la course aux Oscars, avec une avance si écrasante que je ne vois pas comment un autre acteur pourrait le battre… Il y a quelque chose d'incroyable et de déchirant à le voir tenter d’expliquer rationnellement aux autres ainsi qu’à lui-même ce qu’il vit. Dans les moments les plus déstabilisants du film, son univers a déjà basculé, mais il reste silencieux, sachant que toute tentative d’explication sera désormais vaine. Hopkins explore toute la gamme des émotions, de la fureur à l’indignation, avec une véracité folle. C’est à vous couper le souffle, et c’est aussi incroyablement poignant »[30].
-Toujours dans The Guardian, The Father est considéré comme l'un des meilleurs films de 2020[31].
-Dans The Hollywood Reporter, Todd McCarthy y voit « le meilleur film depuis Amour sur le ravage du grand âge. [...] The Father traite de la démence sénile d'une façon intuitive, subtile et nuancée en nous plaçant dans le point de vue de ceux qui en sont atteints. Menée par une interprétation stupéfiante d’Anthony Hopkins, cette œuvre pénétrante marque un début exceptionnel de Florian Zeller en tant que metteur en scène… Cela s’imposera certainement comme l’une des plus grandes interprétations de Hopkins… Ce film ouvrira également toutes les opportunités à Zeller en tant que metteur en scène »[32].
-Dans The New York Times, Jeannette Catsoulis estime que le film est « à la fois prodigieusement efficace et profondément émouvant » et le décrit comme « une peinture majestueuse des choses qui s'en vont »[33].
-Selon The Times, The Father est « l'une des plus grandes expériences cinématographiques de la décennie »[34].
-Postérité
-En 2021, le film a été inclus dans la liste de Forbes des "150 plus grands films du XXIe siècle"[35].
-En avril 2021, Stephen Colbert déclare dans son émission du Late Show consacrée à The Father que la performance d'Anthony Hopkins dans ce film est "probablement la plus grande performance de tous les temps"[36].
-En 2022, Time Out le classe dans sa liste  des "100 meilleurs films du siècle"[37]. 
-En 2023, il est en deuxième position des "20 meilleurs films des années 2020" selon Collider[38]. 
-Il prend la 133e position dans le classement professionnel d'IMDb des 250 meilleurs films de tous les temps[39]. 
-Enfin, il apparaît en 27e position sur la liste de Collider des "30 meilleurs drames de tous les temps", entre Les Fraises sauvages d'Ingmar Bergman et Les 400 Coups de François Truffaut[40].
-Box-office</t>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2019, Anthony Hopkins et Olivia Colman sont annoncés dans les rôles principaux. Olivia Williams, Rufus Sewell, Imogen Poots et Mark Gatiss rejoignent la distribution le mois suivant.
+</t>
         </is>
       </c>
     </row>
@@ -716,21 +722,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sélections dans les festivals
-Festival du film de Sundance 2020 : sélection officielle dans la catégorie Premières
-Toronto International Film Festival : sélection officielle[85]
-Telluride Film Festival : sélection officielle[86]
-Festival international du film de Saint-Sébastien : sélection officielle dans la catégorie Pearl
-Festival du film de Zurich[87] : sélection officielle dans la catégorie Gala Premières
-Festival international du film des Hamptons : sélection officielle[88]
-Festival du film britannique de Dinard[89]
-Festival de l'American Film Institute : sélection officielle[90]
-Festival international du film du Caire : film d'ouverture[91]</t>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute le 13 mai 2019. Il se déroule notamment aux West London Film Studios à Hayes près de Londres. Il a également lieu à West Kensington.
+</t>
         </is>
       </c>
     </row>
@@ -755,10 +759,178 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Father sort en salles aux États-Unis le 26 février 2021. Après plusieurs modifications de calendrier, la sortie française est décalée en raison de la pandémie de Covid-19 : le 26 avril, la date n'est toujours pas connue. Le film sort tout de même le 26 mai 2021 dans les salles de cinéma à la suite des annonces gouvernementales du 29 avril concernant leur réouverture.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The_Father_(film,_2020)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Father_(film,_2020)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les critiques sont unanimes, le film atteignant le score de 100 % sur Rotten Tomatoes. Sur Metacritic, le film est noté à 91 sur 100, s'inscrivant ainsi dans la catégorie de « l'acclamation universelle ». 
+Dans Variety, Owen Gleiberman écrit : « The Father accomplit quelque chose que peu de films ont réussi à accomplir à ce sujet. Il nous place dans l'esprit d’un être en train de se détériorer – et il le fait en nous présentant cette détérioration de façon apparemment rationnelle et comme une expérience cohérente. À certains moments, le film semble envoyer Le Roi Lear dans un univers parallèle ; à d’autres moments, cela fait penser à Shining réécrit par Harold Pinter. The Father est un film intimiste, mais il a une telle verve artistique qu’il réussit à jongler avec le réel sans jamais devenir un simple jeu de l’esprit. Et c’est pourquoi il est traversé d’une rage brûlante et désespérée. ».
+Dans The Guardian, Benjamin Lee estime qu'avec ce film « Anthony Hopkins est maintenant en tête de la course aux Oscars, avec une avance si écrasante que je ne vois pas comment un autre acteur pourrait le battre… Il y a quelque chose d'incroyable et de déchirant à le voir tenter d’expliquer rationnellement aux autres ainsi qu’à lui-même ce qu’il vit. Dans les moments les plus déstabilisants du film, son univers a déjà basculé, mais il reste silencieux, sachant que toute tentative d’explication sera désormais vaine. Hopkins explore toute la gamme des émotions, de la fureur à l’indignation, avec une véracité folle. C’est à vous couper le souffle, et c’est aussi incroyablement poignant ».
+Toujours dans The Guardian, The Father est considéré comme l'un des meilleurs films de 2020.
+Dans The Hollywood Reporter, Todd McCarthy y voit « le meilleur film depuis Amour sur le ravage du grand âge. [...] The Father traite de la démence sénile d'une façon intuitive, subtile et nuancée en nous plaçant dans le point de vue de ceux qui en sont atteints. Menée par une interprétation stupéfiante d’Anthony Hopkins, cette œuvre pénétrante marque un début exceptionnel de Florian Zeller en tant que metteur en scène… Cela s’imposera certainement comme l’une des plus grandes interprétations de Hopkins… Ce film ouvrira également toutes les opportunités à Zeller en tant que metteur en scène ».
+Dans The New York Times, Jeannette Catsoulis estime que le film est « à la fois prodigieusement efficace et profondément émouvant » et le décrit comme « une peinture majestueuse des choses qui s'en vont ».
+Selon The Times, The Father est « l'une des plus grandes expériences cinématographiques de la décennie ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The_Father_(film,_2020)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Father_(film,_2020)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, le film a été inclus dans la liste de Forbes des "150 plus grands films du XXIe siècle".
+En avril 2021, Stephen Colbert déclare dans son émission du Late Show consacrée à The Father que la performance d'Anthony Hopkins dans ce film est "probablement la plus grande performance de tous les temps".
+En 2022, Time Out le classe dans sa liste  des "100 meilleurs films du siècle". 
+En 2023, il est en deuxième position des "20 meilleurs films des années 2020" selon Collider. 
+Il prend la 133e position dans le classement professionnel d'IMDb des 250 meilleurs films de tous les temps. 
+Enfin, il apparaît en 27e position sur la liste de Collider des "30 meilleurs drames de tous les temps", entre Les Fraises sauvages d'Ingmar Bergman et Les 400 Coups de François Truffaut.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The_Father_(film,_2020)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Father_(film,_2020)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sélections dans les festivals</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Festival du film de Sundance 2020 : sélection officielle dans la catégorie Premières
+Toronto International Film Festival : sélection officielle
+Telluride Film Festival : sélection officielle
+Festival international du film de Saint-Sébastien : sélection officielle dans la catégorie Pearl
+Festival du film de Zurich : sélection officielle dans la catégorie Gala Premières
+Festival international du film des Hamptons : sélection officielle
+Festival du film britannique de Dinard
+Festival de l'American Film Institute : sélection officielle
+Festival international du film du Caire : film d'ouverture</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>The_Father_(film,_2020)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Father_(film,_2020)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Le Père (2012), pièce dont The Father est l'adaptation, est le deuxième volet d'une trilogie débutée avec La Mère (2010) et achevée avec Le Fils (2018). Cette dernière a également été adaptée dans le film The Son (2022).
 Le personnage du père, joué par Anthony Hopkins, possède des points communs avec l'acteur qui l'interprète. Ainsi, ils partagent le même prénom (Anthony) et lorsqu'une médecin demande au père sa date de naissance, il répond « le vendredi 31 décembre 1937 », la véritable date de naissance d'Anthony Hopkins.</t>
